--- a/result1.xlsx
+++ b/result1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>drop_idx</t>
   </si>
@@ -44,19 +44,7 @@
     <t>intervals</t>
   </si>
   <si>
-    <t>marginal_gain</t>
-  </si>
-  <si>
     <t>FY1</t>
-  </si>
-  <si>
-    <t>5.989016-9.050746</t>
-  </si>
-  <si>
-    <t>9.564103-11.886340</t>
-  </si>
-  <si>
-    <t>8.029252-10.475870</t>
   </si>
   <si>
     <t>total_shield</t>
@@ -423,13 +411,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -457,104 +445,83 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:9">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>3.538461538461538</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>3.538461538461538</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>17304.61538461538</v>
+        <v>17800</v>
       </c>
       <c r="G2">
-        <v>6.066711835776119E-14</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>1738.648520710059</v>
-      </c>
-      <c r="I2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2">
-        <v>3.061730503439835</v>
+        <v>1800</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:9">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3">
-        <v>4</v>
+        <v>2.606440178385094</v>
       </c>
       <c r="D3">
-        <v>5.564102564102564</v>
+        <v>4.658772175859569</v>
       </c>
       <c r="E3">
-        <v>9.564102564102564</v>
+        <v>7.265212354244662</v>
       </c>
       <c r="F3">
-        <v>16461.02564102564</v>
+        <v>16928.89750673098</v>
       </c>
       <c r="G3">
-        <v>1.639770662858328E-13</v>
+        <v>-1.066792880111189E-13</v>
       </c>
       <c r="H3">
-        <v>1648.299737015122</v>
-      </c>
-      <c r="I3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J3">
-        <v>2.322237060069989</v>
+        <v>1693.577458559869</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:9">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>10.19002015571421</v>
       </c>
       <c r="D4">
-        <v>4.551282051282051</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>6.551282051282051</v>
+        <v>10.19002015571421</v>
       </c>
       <c r="F4">
-        <v>16882.82051282051</v>
+        <v>16578.21162943459</v>
       </c>
       <c r="G4">
-        <v>1.12322092321797E-13</v>
+        <v>-1.496259217248387E-13</v>
       </c>
       <c r="H4">
-        <v>1698.500575279421</v>
-      </c>
-      <c r="I4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J4">
-        <v>0.5133561626459997</v>
+        <v>1800</v>
       </c>
     </row>
   </sheetData>
@@ -572,24 +539,24 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>5.897323726155824</v>
+        <v>5.461945326626299</v>
       </c>
       <c r="B2">
-        <v>180</v>
+        <v>-180</v>
       </c>
       <c r="C2">
-        <v>140</v>
+        <v>119.9004861516658</v>
       </c>
     </row>
   </sheetData>

--- a/result1.xlsx
+++ b/result1.xlsx
@@ -480,22 +480,22 @@
         <v>9</v>
       </c>
       <c r="C3">
-        <v>2.606440178385094</v>
+        <v>1.896188520883445</v>
       </c>
       <c r="D3">
-        <v>4.658772175859569</v>
+        <v>4.720624310806429</v>
       </c>
       <c r="E3">
-        <v>7.265212354244662</v>
+        <v>6.616812831689874</v>
       </c>
       <c r="F3">
-        <v>16928.89750673098</v>
+        <v>16873.64620356342</v>
       </c>
       <c r="G3">
-        <v>-1.066792880111189E-13</v>
+        <v>-1.134456211684059E-13</v>
       </c>
       <c r="H3">
-        <v>1693.577458559869</v>
+        <v>1690.806959969494</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -506,19 +506,19 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>10.19002015571421</v>
+        <v>70</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>10.19002015571421</v>
+        <v>70</v>
       </c>
       <c r="F4">
-        <v>16578.21162943459</v>
+        <v>8000</v>
       </c>
       <c r="G4">
-        <v>-1.496259217248387E-13</v>
+        <v>-1.200153863164406E-12</v>
       </c>
       <c r="H4">
         <v>1800</v>
@@ -550,13 +550,13 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>5.461945326626299</v>
+        <v>5.444558723270893</v>
       </c>
       <c r="B2">
         <v>-180</v>
       </c>
       <c r="C2">
-        <v>119.9004861516658</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/result1.xlsx
+++ b/result1.xlsx
@@ -454,22 +454,22 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>10.04986490155197</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>18.51722341247246</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>28.56708831402443</v>
       </c>
       <c r="F2">
-        <v>17800</v>
+        <v>15746.19976407368</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>968.2397745103196</v>
       </c>
       <c r="H2">
-        <v>1800</v>
+        <v>119.8509417536511</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -480,22 +480,22 @@
         <v>9</v>
       </c>
       <c r="C3">
-        <v>1.896188520883445</v>
+        <v>12.63355082179727</v>
       </c>
       <c r="D3">
-        <v>4.720624310806429</v>
+        <v>8.709629515713186</v>
       </c>
       <c r="E3">
-        <v>6.616812831689874</v>
+        <v>21.34318033751046</v>
       </c>
       <c r="F3">
-        <v>16873.64620356342</v>
+        <v>16265.5548955237</v>
       </c>
       <c r="G3">
-        <v>-1.134456211684059E-13</v>
+        <v>723.3959544690103</v>
       </c>
       <c r="H3">
-        <v>1690.806959969494</v>
+        <v>1428.297533125187</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -506,22 +506,22 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>70</v>
+        <v>40.53950647981159</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>15.19486407855504</v>
       </c>
       <c r="E4">
-        <v>70</v>
+        <v>55.73437055836663</v>
       </c>
       <c r="F4">
-        <v>8000</v>
+        <v>13793.03708716499</v>
       </c>
       <c r="G4">
-        <v>-1.200153863164406E-12</v>
+        <v>1889.035164826892</v>
       </c>
       <c r="H4">
-        <v>1800</v>
+        <v>668.668917607765</v>
       </c>
     </row>
   </sheetData>
@@ -550,13 +550,13 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>5.444558723270893</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>-180</v>
+        <v>154.7590219270636</v>
       </c>
       <c r="C2">
-        <v>140</v>
+        <v>79.48276054051152</v>
       </c>
     </row>
   </sheetData>

--- a/result1.xlsx
+++ b/result1.xlsx
@@ -454,22 +454,22 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>10.04986490155197</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>18.51722341247246</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>28.56708831402443</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>15746.19976407368</v>
+        <v>17800</v>
       </c>
       <c r="G2">
-        <v>968.2397745103196</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>119.8509417536511</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -480,22 +480,22 @@
         <v>9</v>
       </c>
       <c r="C3">
-        <v>12.63355082179727</v>
+        <v>1.025065982062484</v>
       </c>
       <c r="D3">
-        <v>8.709629515713186</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>21.34318033751046</v>
+        <v>1.025065982062484</v>
       </c>
       <c r="F3">
-        <v>16265.5548955237</v>
+        <v>17918.32400549278</v>
       </c>
       <c r="G3">
-        <v>723.3959544690103</v>
+        <v>16.45355175920701</v>
       </c>
       <c r="H3">
-        <v>1428.297533125187</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -506,22 +506,22 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>40.53950647981159</v>
+        <v>55.92135648639669</v>
       </c>
       <c r="D4">
-        <v>15.19486407855504</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>55.73437055836663</v>
+        <v>55.92135648639669</v>
       </c>
       <c r="F4">
-        <v>13793.03708716499</v>
+        <v>24255.0370491727</v>
       </c>
       <c r="G4">
-        <v>1889.035164826892</v>
+        <v>897.6055683193168</v>
       </c>
       <c r="H4">
-        <v>668.668917607765</v>
+        <v>1800</v>
       </c>
     </row>
   </sheetData>
@@ -550,13 +550,13 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>0</v>
+        <v>6.378093406558037</v>
       </c>
       <c r="B2">
-        <v>154.7590219270636</v>
+        <v>7.916503247178485</v>
       </c>
       <c r="C2">
-        <v>79.48276054051152</v>
+        <v>116.5412814073909</v>
       </c>
     </row>
   </sheetData>

--- a/result1.xlsx
+++ b/result1.xlsx
@@ -457,19 +457,19 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>3.614136517227531</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>3.614136517227531</v>
       </c>
       <c r="F2">
-        <v>17800</v>
+        <v>17294.03026726995</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>3.08086971080781</v>
       </c>
       <c r="H2">
-        <v>1800</v>
+        <v>1735.996284450728</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -480,22 +480,22 @@
         <v>9</v>
       </c>
       <c r="C3">
-        <v>1.025065982062484</v>
+        <v>3.665306173808698</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>5.44282041849908</v>
       </c>
       <c r="E3">
-        <v>1.025065982062484</v>
+        <v>9.108126592307778</v>
       </c>
       <c r="F3">
-        <v>17918.32400549278</v>
+        <v>16524.88591517938</v>
       </c>
       <c r="G3">
-        <v>16.45355175920701</v>
+        <v>7.76422008595576</v>
       </c>
       <c r="H3">
-        <v>1800</v>
+        <v>1654.84095887065</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -506,22 +506,22 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>55.92135648639669</v>
+        <v>5.637487342304609</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>6.076619214213964</v>
       </c>
       <c r="E4">
-        <v>55.92135648639669</v>
+        <v>11.71410655651857</v>
       </c>
       <c r="F4">
-        <v>24255.0370491727</v>
+        <v>16160.05548342715</v>
       </c>
       <c r="G4">
-        <v>897.6055683193168</v>
+        <v>9.985687011855948</v>
       </c>
       <c r="H4">
-        <v>1800</v>
+        <v>1619.066024734684</v>
       </c>
     </row>
   </sheetData>
@@ -550,13 +550,13 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>6.378093406558037</v>
+        <v>7.656767606735239</v>
       </c>
       <c r="B2">
-        <v>7.916503247178485</v>
+        <v>179.6511280444202</v>
       </c>
       <c r="C2">
-        <v>116.5412814073909</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
